--- a/dacon_13th_Meta.xlsx
+++ b/dacon_13th_Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dacon_13th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102957D-1B53-469F-B506-9459258029A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A09E5B-68B3-47FE-9A04-D9F0BDE2F2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A075FFB-626F-4B1A-A0F7-8224C782CCD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0A075FFB-626F-4B1A-A0F7-8224C782CCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="train_test" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>변수명</t>
   </si>
@@ -60,15 +60,9 @@
     <t>in_out</t>
   </si>
   <si>
-    <t>시내버스, 시외버스 구분</t>
-  </si>
-  <si>
     <t>station_code</t>
   </si>
   <si>
-    <t>해당 승하차 정류소의 ID</t>
-  </si>
-  <si>
     <t>station_name</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
   </si>
   <si>
     <t>18:00:00부터 19:59:59까지 승차한 인원 수</t>
-  </si>
-  <si>
-    <t>(train data에만 존재)</t>
   </si>
   <si>
     <t>컬럼 기본 설명</t>
@@ -229,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시외, 시내로 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>범주형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,13 +330,515 @@
   </si>
   <si>
     <t>유공 동반</t>
+  </si>
+  <si>
+    <t>요일별 승하차 인원은
+월,화가 가장많고, 토,일이 가장 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저녁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미치는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>언제일까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 날씨에 영향을 미칠 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일 별로 승 하차 인원이 다름. 월,화는 많고 토,일은 상대적으로 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전 0~1이 치우친 데이터 분포를 가짐 -&gt; 정규성 x
+정규성 변환을 해야할까? -&gt; 하려면 box-cox 변환을 하는게 가장 정확</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규성 변환 의미 없음!
+0인 데이터가 너무 많고, 1,2,3인 값들이 대부분이기 때문에
+정규성의 의미가 없음
+boxCox 변환시 0이 있으면 안됨 --&gt; +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승하차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정류소의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시외, 시내로 구분
+시외가 시내보다 18~20 탑승 승객이 더 많으므로,
+시외 : 2, 시내 : 1으로 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노선ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내, 시외 정류소 구분</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서귀포시, 제주시에 탑승 인원이 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holidays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공휴일 여부(토요일, 일요일, 공휴일 포함)
+1 : 공휴일, 0 : 공휴일 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석이 껴있음. 9/12, 9/13, 9/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 날짜의 강수량 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제주시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서귀포시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label encoding한 정보</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>182개 label encoding 한 컬럼</t>
+  </si>
+  <si>
+    <t>주소 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ex) ~~동 117-2 )</t>
+  </si>
+  <si>
+    <t>연속형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일 별 통계량이 달라서 파생변수로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +881,29 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +919,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,15 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,6 +1044,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B028B0-BE27-48E9-A1C7-1B12145DEED3}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -863,7 +1397,7 @@
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="56.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -872,16 +1406,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -889,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -902,13 +1436,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -917,254 +1451,392 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
+      <c r="A8" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
+      <c r="A10" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
+      <c r="B24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="53" spans="3:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C53" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C58" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C59" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1174,17 +1846,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D8E84D-97E1-478C-AD62-4EBBC8311DA0}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.69921875" customWidth="1"/>
     <col min="5" max="5" width="28.3984375" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -1195,34 +1867,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1230,266 +1906,224 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="5"/>
+      <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>77</v>
+      <c r="A13" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
-        <v>79</v>
+      <c r="A14" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="29" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="1" t="s">
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="12" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13" t="s">
+    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8">
+        <v>27</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="9">
-        <v>2</v>
-      </c>
-      <c r="D32" s="13" t="s">
+    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8">
+        <v>28</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="9">
-        <v>4</v>
-      </c>
-      <c r="D33" s="13" t="s">
+    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="9">
-        <v>6</v>
-      </c>
-      <c r="D34" s="13" t="s">
+    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8">
+        <v>30</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="9">
-        <v>27</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="9">
-        <v>28</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="9">
-        <v>29</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="9">
-        <v>30</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
